--- a/tmp1.xlsx
+++ b/tmp1.xlsx
@@ -110,10 +110,10 @@
     <t>Принимающая организация, ее адрес, № референса</t>
   </si>
   <si>
-    <t>def MIR TRAVEL COMPANY LTD., 190000, Россия,Санкт-</t>
-  </si>
-  <si>
-    <t>Петербург, улица Большая Морская 31-23,</t>
+    <t>MIR TRAVEL COMPANY LTD., 190000, Россия,Санкт-Пете</t>
+  </si>
+  <si>
+    <t>рбург, улица Большая Морская 31-23,</t>
   </si>
   <si>
     <t>Реестровый № 000286</t>

--- a/tmp1.xlsx
+++ b/tmp1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>КОНТРОЛЬНЫЙ ТАЛОН</t>
   </si>
@@ -26,9 +26,6 @@
     <t>ПОДТВЕРЖДЕНИЕ №</t>
   </si>
   <si>
-    <t>0011 - AUS  21/02</t>
-  </si>
-  <si>
     <t>ВАУЧЕР-VOUCHER №</t>
   </si>
   <si>
@@ -116,7 +113,7 @@
     <t xml:space="preserve">Россия,Санкт-Петербург, улица Большая Морская 31-23, test test test test test test test test test test test test test test test test </t>
   </si>
   <si>
-    <t>Реестровый № 000286</t>
+    <t>Реестровый №</t>
   </si>
   <si>
     <t>016290</t>
@@ -889,8 +886,8 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0" zoomScale="75" zoomScaleNormal="50">
-      <selection activeCell="B36" sqref="B36:H36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0" zoomScale="75" zoomScaleNormal="50">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
@@ -938,14 +935,12 @@
       <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>2</v>
-      </c>
+      <c r="F2" s="37" t="n"/>
       <c r="I2" s="10" t="n"/>
       <c r="J2" s="8" t="n"/>
       <c r="K2" s="35" t="n"/>
       <c r="L2" s="34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" s="37">
         <f>REPT(F2,1)</f>
@@ -961,14 +956,14 @@
       <c r="A3" s="8" t="n"/>
       <c r="B3" s="35" t="n"/>
       <c r="C3" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="12" t="n"/>
       <c r="I3" s="13" t="n"/>
       <c r="J3" s="14" t="n"/>
       <c r="K3" s="35" t="n"/>
       <c r="L3" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="12" t="n"/>
       <c r="R3" s="13" t="n"/>
@@ -998,7 +993,7 @@
     <row customHeight="1" ht="16.5" r="5" spans="1:19">
       <c r="A5" s="8" t="n"/>
       <c r="B5" s="39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="34" t="n"/>
       <c r="G5" s="34" t="n"/>
@@ -1039,17 +1034,17 @@
     <row customHeight="1" ht="16.5" r="7" spans="1:19">
       <c r="A7" s="8" t="n"/>
       <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>6</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>7</v>
       </c>
       <c r="G7" s="35" t="n"/>
       <c r="H7" s="35" t="n"/>
       <c r="I7" s="10" t="n"/>
       <c r="J7" s="8" t="n"/>
       <c r="K7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="40">
         <f>REPT(D7,1)</f>
@@ -1084,17 +1079,17 @@
     <row customHeight="1" ht="16.5" r="9" spans="1:19">
       <c r="A9" s="8" t="n"/>
       <c r="B9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>8</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>9</v>
       </c>
       <c r="G9" s="35" t="n"/>
       <c r="H9" s="35" t="n"/>
       <c r="I9" s="10" t="n"/>
       <c r="J9" s="8" t="n"/>
       <c r="K9" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9" s="40">
         <f>REPT(D9,1)</f>
@@ -1129,13 +1124,13 @@
     <row customHeight="1" ht="16.5" r="11" spans="1:19">
       <c r="A11" s="8" t="n"/>
       <c r="B11" s="35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="50" t="n">
         <v>43502</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="50" t="n">
         <v>43509</v>
@@ -1144,13 +1139,13 @@
       <c r="I11" s="10" t="n"/>
       <c r="J11" s="8" t="n"/>
       <c r="K11" s="35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" s="50" t="n">
         <v>43502</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" s="50" t="n">
         <v>43509</v>
@@ -1183,15 +1178,15 @@
     <row customHeight="1" ht="16.5" r="13" spans="1:19">
       <c r="A13" s="8" t="n"/>
       <c r="B13" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>13</v>
       </c>
       <c r="I13" s="10" t="n"/>
       <c r="J13" s="8" t="n"/>
       <c r="K13" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="40">
         <f>REPT(C13,1)</f>
@@ -1224,15 +1219,15 @@
     <row customHeight="1" ht="16.5" r="15" spans="1:19">
       <c r="A15" s="8" t="n"/>
       <c r="B15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>14</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>15</v>
       </c>
       <c r="I15" s="17" t="n"/>
       <c r="J15" s="8" t="n"/>
       <c r="K15" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15" s="40">
         <f>REPT(E15,1)</f>
@@ -1262,28 +1257,28 @@
     <row customHeight="1" ht="16.5" r="17" spans="1:19">
       <c r="A17" s="8" t="n"/>
       <c r="B17" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="F17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="49" t="s">
         <v>18</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>19</v>
       </c>
       <c r="I17" s="10" t="n"/>
       <c r="J17" s="8" t="n"/>
       <c r="K17" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" s="40">
         <f>REPT(D17,1)</f>
         <v/>
       </c>
       <c r="O17" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P17" s="48">
         <f>REPT(G17,1)</f>
@@ -1316,10 +1311,10 @@
     <row customHeight="1" ht="16.5" r="19" spans="1:19">
       <c r="A19" s="8" t="n"/>
       <c r="B19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>20</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>21</v>
       </c>
       <c r="F19" s="35" t="n"/>
       <c r="G19" s="35" t="n"/>
@@ -1327,7 +1322,7 @@
       <c r="I19" s="10" t="n"/>
       <c r="J19" s="8" t="n"/>
       <c r="K19" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" s="38">
         <f>REPT(D19,1)</f>
@@ -1363,10 +1358,10 @@
     <row customHeight="1" ht="16.5" r="21" spans="1:19">
       <c r="A21" s="8" t="n"/>
       <c r="B21" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>22</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>23</v>
       </c>
       <c r="F21" s="35" t="n"/>
       <c r="G21" s="35" t="n"/>
@@ -1374,7 +1369,7 @@
       <c r="I21" s="10" t="n"/>
       <c r="J21" s="8" t="n"/>
       <c r="K21" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21" s="40">
         <f>REPT(D21,1)</f>
@@ -1410,15 +1405,15 @@
     <row customHeight="1" ht="16.5" r="23" spans="1:19">
       <c r="A23" s="8" t="n"/>
       <c r="B23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="41" t="s">
         <v>24</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>25</v>
       </c>
       <c r="I23" s="10" t="n"/>
       <c r="J23" s="8" t="n"/>
       <c r="K23" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O23" s="41">
         <f>REPT(F23,1)</f>
@@ -1430,7 +1425,7 @@
     <row customHeight="1" ht="16.5" r="24" spans="1:19">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="n"/>
       <c r="D24" s="2" t="n"/>
@@ -1453,11 +1448,11 @@
     <row customHeight="1" ht="16.5" r="25" spans="1:19">
       <c r="A25" s="51" t="n"/>
       <c r="B25" s="51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="52" t="n"/>
       <c r="D25" s="53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="52" t="n"/>
       <c r="F25" s="52" t="n"/>
@@ -1466,7 +1461,7 @@
       <c r="I25" s="51" t="n"/>
       <c r="J25" s="51" t="n"/>
       <c r="K25" s="51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L25" s="52" t="n"/>
       <c r="M25" s="53">
@@ -1483,13 +1478,13 @@
     <row customHeight="1" ht="16.5" r="26" spans="1:19">
       <c r="A26" s="8" t="n"/>
       <c r="B26" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26" s="35" t="n"/>
       <c r="I26" s="10" t="n"/>
       <c r="J26" s="8" t="n"/>
       <c r="K26" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="35" t="n"/>
       <c r="R26" s="10" t="n"/>
@@ -1498,7 +1493,7 @@
     <row customHeight="1" ht="16.5" r="27" spans="1:19">
       <c r="A27" s="8" t="n"/>
       <c r="B27" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" s="35" t="n"/>
       <c r="I27" s="10" t="n"/>
@@ -1514,7 +1509,7 @@
     <row customHeight="1" ht="16.5" r="28" spans="1:19">
       <c r="A28" s="8" t="n"/>
       <c r="B28" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="35" t="n"/>
       <c r="I28" s="10" t="n"/>
@@ -1530,11 +1525,11 @@
     <row customHeight="1" ht="20.25" r="29" spans="1:19" thickBot="1">
       <c r="A29" s="8" t="n"/>
       <c r="B29" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="26" t="n"/>
       <c r="F29" s="26" t="n"/>
@@ -1543,11 +1538,11 @@
       <c r="I29" s="30" t="n"/>
       <c r="J29" s="31" t="n"/>
       <c r="K29" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L29" s="27" t="n"/>
       <c r="M29" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N29" s="25" t="n"/>
       <c r="O29" s="25" t="n"/>
@@ -1580,15 +1575,15 @@
     <row customHeight="1" ht="16.5" r="31" spans="1:19">
       <c r="A31" s="8" t="n"/>
       <c r="B31" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="48" t="s">
         <v>34</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>35</v>
       </c>
       <c r="I31" s="10" t="n"/>
       <c r="J31" s="8" t="n"/>
       <c r="K31" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N31" s="48">
         <f>REPT(E31,1)</f>
@@ -1600,7 +1595,7 @@
     <row customHeight="1" ht="16.5" r="32" spans="1:19">
       <c r="A32" s="8" t="n"/>
       <c r="B32" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" s="10" t="n"/>
       <c r="J32" s="8" t="n"/>
@@ -1614,7 +1609,7 @@
     <row customHeight="1" ht="16.5" r="33" spans="1:19">
       <c r="A33" s="8" t="n"/>
       <c r="B33" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I33" s="10" t="n"/>
       <c r="J33" s="8" t="n"/>
@@ -1628,7 +1623,7 @@
     <row customHeight="1" ht="16.5" r="34" spans="1:19">
       <c r="A34" s="8" t="n"/>
       <c r="B34" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="10" t="n"/>
       <c r="J34" s="8" t="n"/>
@@ -1654,12 +1649,12 @@
     <row customHeight="1" ht="16.5" r="36" spans="1:19">
       <c r="A36" s="8" t="n"/>
       <c r="B36" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="10" t="n"/>
       <c r="J36" s="8" t="n"/>
       <c r="K36" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R36" s="10" t="n"/>
       <c r="S36" s="10" t="n"/>
@@ -1667,12 +1662,12 @@
     <row customHeight="1" ht="16.5" r="37" spans="1:19">
       <c r="A37" s="8" t="n"/>
       <c r="B37" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I37" s="10" t="n"/>
       <c r="J37" s="8" t="n"/>
       <c r="K37" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R37" s="10" t="n"/>
       <c r="S37" s="10" t="n"/>
@@ -1680,7 +1675,7 @@
     <row customHeight="1" ht="16.5" r="38" spans="1:19">
       <c r="A38" s="8" t="n"/>
       <c r="B38" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="35" t="n"/>
       <c r="D38" s="35" t="n"/>
@@ -1691,7 +1686,7 @@
       <c r="I38" s="10" t="n"/>
       <c r="J38" s="8" t="n"/>
       <c r="K38" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L38" s="35" t="n"/>
       <c r="M38" s="35" t="n"/>
@@ -1706,29 +1701,29 @@
       <c r="A39" s="8" t="n"/>
       <c r="B39" s="35" t="n"/>
       <c r="C39" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="45" t="n"/>
       <c r="E39" s="52" t="n"/>
       <c r="F39" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="I39" s="10" t="n"/>
       <c r="J39" s="8" t="n"/>
       <c r="K39" s="35" t="n"/>
       <c r="L39" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M39" s="45" t="n"/>
       <c r="N39" s="52" t="n"/>
       <c r="O39" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q39" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="Q39" s="35" t="s">
-        <v>44</v>
       </c>
       <c r="R39" s="10" t="n"/>
       <c r="S39" s="10" t="n"/>
@@ -1741,7 +1736,7 @@
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="35" t="n"/>
       <c r="H40" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I40" s="3" t="n"/>
       <c r="J40" s="1" t="n"/>
@@ -1751,7 +1746,7 @@
       <c r="N40" s="2" t="n"/>
       <c r="O40" s="35" t="n"/>
       <c r="Q40" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="n"/>
@@ -1760,7 +1755,7 @@
       <c r="A41" s="8" t="n"/>
       <c r="B41" s="35" t="n"/>
       <c r="C41" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="46">
         <f>TODAY()</f>
@@ -1773,7 +1768,7 @@
       <c r="J41" s="8" t="n"/>
       <c r="K41" s="35" t="n"/>
       <c r="L41" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M41" s="46">
         <f>TODAY()</f>

--- a/tmp1.xlsx
+++ b/tmp1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,156 +11,10 @@
     <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">Лист1!$A$1:$T$42</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Лист1'!$A$1:$T$42</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
-  <si>
-    <t>КОНТРОЛЬНЫЙ ТАЛОН</t>
-  </si>
-  <si>
-    <t>ПОДТВЕРЖДЕНИЕ №</t>
-  </si>
-  <si>
-    <t>130319 -                USA 06/02</t>
-  </si>
-  <si>
-    <t>ВАУЧЕР-VOUCHER №</t>
-  </si>
-  <si>
-    <t>о приеме иностранного туриста</t>
-  </si>
-  <si>
-    <t>визовое приглашение № 10032</t>
-  </si>
-  <si>
-    <t>Кратность визы</t>
-  </si>
-  <si>
-    <t>однократная</t>
-  </si>
-  <si>
-    <t>Гражданство</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Въезд с</t>
-  </si>
-  <si>
-    <t>06/02/2019</t>
-  </si>
-  <si>
-    <t>Выезд до</t>
-  </si>
-  <si>
-    <t>13/02/2019</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>ААА/AAA</t>
-  </si>
-  <si>
-    <t>Имя, Отчество (имена)</t>
-  </si>
-  <si>
-    <t>Дата рождения</t>
-  </si>
-  <si>
-    <t>11/04/1961</t>
-  </si>
-  <si>
-    <t>Пол</t>
-  </si>
-  <si>
-    <t>МУЖСКОЙ</t>
-  </si>
-  <si>
-    <t>Номер паспорта</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Цель поездки</t>
-  </si>
-  <si>
-    <t>ТУРИЗМ</t>
-  </si>
-  <si>
-    <t>Маршрут и места размещения город</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def Москва, Санкт-Петербург </t>
-  </si>
-  <si>
-    <t>Размещение</t>
-  </si>
-  <si>
-    <t>def на борту теплохода "АКУН" (Viking Akun)</t>
-  </si>
-  <si>
-    <t>Принимающая организация, ее адрес, № референса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def MIR TRAVEL COMPANY LTD., 190000, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Россия,Санкт-Петербург, улица Большая Морская 31-23, </t>
-  </si>
-  <si>
-    <t>Реестровый №</t>
-  </si>
-  <si>
-    <t>016290</t>
-  </si>
-  <si>
-    <t>Дополнительные сведения:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def Вышеуказанному туристу </t>
-  </si>
-  <si>
-    <t xml:space="preserve">предоставляется размещение и питание на борту теплохода "АКУН", трансферы </t>
-  </si>
-  <si>
-    <t xml:space="preserve">и экскурсионное обслуживание в городе Москва, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Санкт-Петербур </t>
-  </si>
-  <si>
-    <t>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ОПЛАЧЕНЫ</t>
-  </si>
-  <si>
-    <t>Ответсвенное лицо:</t>
-  </si>
-  <si>
-    <t>М.П.</t>
-  </si>
-  <si>
-    <t>Подпись</t>
-  </si>
-  <si>
-    <t>Васив Д.М.</t>
-  </si>
-  <si>
-    <t>(менеджер ви-</t>
-  </si>
-  <si>
-    <t>зового отдела)</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -957,7 +811,7 @@
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="33" width="1.140625"/>
     <col customWidth="1" max="2" min="2" style="33" width="12.28515625"/>
@@ -977,7 +831,7 @@
     <col customWidth="1" hidden="1" max="20" min="20" style="33" width="23.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="1" s="33">
       <c r="A1" s="54" t="n"/>
       <c r="B1" s="6" t="n"/>
       <c r="C1" s="6" t="n"/>
@@ -991,27 +845,35 @@
       <c r="K1" s="6" t="n"/>
       <c r="L1" s="6" t="n"/>
       <c r="M1" s="55" t="n"/>
-      <c r="N1" s="56" t="s">
-        <v>0</v>
+      <c r="N1" s="56" t="inlineStr">
+        <is>
+          <t>КОНТРОЛЬНЫЙ ТАЛОН</t>
+        </is>
       </c>
       <c r="O1" s="57" t="n"/>
       <c r="P1" s="57" t="n"/>
       <c r="Q1" s="58" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="2" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="2" s="33">
       <c r="A2" s="8" t="n"/>
       <c r="B2" s="34" t="n"/>
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>2</v>
+      <c r="C2" s="48" t="inlineStr">
+        <is>
+          <t>ПОДТВЕРЖДЕНИЕ №</t>
+        </is>
+      </c>
+      <c r="F2" s="49" t="inlineStr">
+        <is>
+          <t>130319 -                USA 05/02</t>
+        </is>
       </c>
       <c r="I2" s="10" t="n"/>
       <c r="J2" s="8" t="n"/>
       <c r="K2" s="34" t="n"/>
-      <c r="L2" s="48" t="s">
-        <v>3</v>
+      <c r="L2" s="48" t="inlineStr">
+        <is>
+          <t>ВАУЧЕР-VOUCHER №</t>
+        </is>
       </c>
       <c r="O2" s="49">
         <f>REPT(F2,1)</f>
@@ -1024,24 +886,28 @@
       </c>
       <c r="S2" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="3" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="3" s="33">
       <c r="A3" s="8" t="n"/>
       <c r="B3" s="34" t="n"/>
-      <c r="C3" s="48" t="s">
-        <v>4</v>
+      <c r="C3" s="48" t="inlineStr">
+        <is>
+          <t>о приеме иностранного туриста</t>
+        </is>
       </c>
       <c r="H3" s="11" t="n"/>
       <c r="I3" s="12" t="n"/>
       <c r="J3" s="13" t="n"/>
       <c r="K3" s="34" t="n"/>
-      <c r="L3" s="48" t="s">
-        <v>4</v>
+      <c r="L3" s="48" t="inlineStr">
+        <is>
+          <t>о приеме иностранного туриста</t>
+        </is>
       </c>
       <c r="Q3" s="59" t="n"/>
       <c r="R3" s="11" t="n"/>
       <c r="S3" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="9.75" r="4" s="33" spans="1:21">
+    <row customHeight="1" ht="9.75" r="4" s="33">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="34" t="n"/>
       <c r="C4" s="48" t="n"/>
@@ -1062,10 +928,12 @@
       <c r="R4" s="11" t="n"/>
       <c r="S4" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="5" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="5" s="33">
       <c r="A5" s="8" t="n"/>
-      <c r="B5" s="52" t="s">
-        <v>5</v>
+      <c r="B5" s="52" t="inlineStr">
+        <is>
+          <t>визовое приглашение № 14</t>
+        </is>
       </c>
       <c r="F5" s="48" t="n"/>
       <c r="G5" s="48" t="n"/>
@@ -1082,7 +950,7 @@
       <c r="R5" s="11" t="n"/>
       <c r="S5" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="11.25" r="6" s="33" spans="1:21">
+    <row customHeight="1" ht="11.25" r="6" s="33">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="n"/>
@@ -1103,20 +971,26 @@
       <c r="R6" s="2" t="n"/>
       <c r="S6" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="7" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="7" s="33">
       <c r="A7" s="8" t="n"/>
-      <c r="B7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>7</v>
+      <c r="B7" s="34" t="inlineStr">
+        <is>
+          <t>Кратность визы</t>
+        </is>
+      </c>
+      <c r="D7" s="39" t="inlineStr">
+        <is>
+          <t>однократная</t>
+        </is>
       </c>
       <c r="G7" s="34" t="n"/>
       <c r="H7" s="34" t="n"/>
       <c r="I7" s="10" t="n"/>
       <c r="J7" s="8" t="n"/>
-      <c r="K7" s="34" t="s">
-        <v>6</v>
+      <c r="K7" s="34" t="inlineStr">
+        <is>
+          <t>Кратность визы</t>
+        </is>
       </c>
       <c r="M7" s="39">
         <f>REPT(D7,1)</f>
@@ -1127,7 +1001,7 @@
       <c r="R7" s="34" t="n"/>
       <c r="S7" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="11.25" r="8" s="33" spans="1:21">
+    <row customHeight="1" ht="11.25" r="8" s="33">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="n"/>
@@ -1148,20 +1022,26 @@
       <c r="R8" s="2" t="n"/>
       <c r="S8" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="9" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="9" s="33">
       <c r="A9" s="8" t="n"/>
-      <c r="B9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>9</v>
+      <c r="B9" s="34" t="inlineStr">
+        <is>
+          <t>Гражданство</t>
+        </is>
+      </c>
+      <c r="D9" s="39" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
       </c>
       <c r="G9" s="34" t="n"/>
       <c r="H9" s="34" t="n"/>
       <c r="I9" s="10" t="n"/>
       <c r="J9" s="8" t="n"/>
-      <c r="K9" s="34" t="s">
-        <v>8</v>
+      <c r="K9" s="34" t="inlineStr">
+        <is>
+          <t>Гражданство</t>
+        </is>
       </c>
       <c r="M9" s="39">
         <f>REPT(D9,1)</f>
@@ -1172,7 +1052,7 @@
       <c r="R9" s="34" t="n"/>
       <c r="S9" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="10.5" r="10" s="33" spans="1:21">
+    <row customHeight="1" ht="10.5" r="10" s="33">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="n"/>
@@ -1193,40 +1073,56 @@
       <c r="R10" s="2" t="n"/>
       <c r="S10" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="11" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="11" s="33">
       <c r="A11" s="8" t="n"/>
-      <c r="B11" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>13</v>
+      <c r="B11" s="34" t="inlineStr">
+        <is>
+          <t>Въезд с</t>
+        </is>
+      </c>
+      <c r="C11" s="37" t="inlineStr">
+        <is>
+          <t>05/02/2019</t>
+        </is>
+      </c>
+      <c r="E11" s="34" t="inlineStr">
+        <is>
+          <t>Выезд до</t>
+        </is>
+      </c>
+      <c r="F11" s="37" t="inlineStr">
+        <is>
+          <t>13/02/2019</t>
+        </is>
       </c>
       <c r="H11" s="37" t="n"/>
       <c r="I11" s="10" t="n"/>
       <c r="J11" s="8" t="n"/>
-      <c r="K11" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>13</v>
+      <c r="K11" s="34" t="inlineStr">
+        <is>
+          <t>Въезд с</t>
+        </is>
+      </c>
+      <c r="L11" s="39" t="inlineStr">
+        <is>
+          <t>05/02/2019</t>
+        </is>
+      </c>
+      <c r="N11" s="34" t="inlineStr">
+        <is>
+          <t>Выезд до</t>
+        </is>
+      </c>
+      <c r="O11" s="39" t="inlineStr">
+        <is>
+          <t>13/02/2019</t>
+        </is>
       </c>
       <c r="Q11" s="62" t="n"/>
       <c r="R11" s="34" t="n"/>
       <c r="S11" s="10" t="n"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="n"/>
@@ -1247,18 +1143,24 @@
       <c r="R12" s="2" t="n"/>
       <c r="S12" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="13" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="13" s="33">
       <c r="A13" s="8" t="n"/>
-      <c r="B13" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>15</v>
+      <c r="B13" s="34" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="C13" s="39" t="inlineStr">
+        <is>
+          <t>НЕКР/NEKR</t>
+        </is>
       </c>
       <c r="I13" s="10" t="n"/>
       <c r="J13" s="8" t="n"/>
-      <c r="K13" s="34" t="s">
-        <v>14</v>
+      <c r="K13" s="34" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
       </c>
       <c r="L13" s="39">
         <f>REPT(C13,1)</f>
@@ -1268,7 +1170,7 @@
       <c r="R13" s="34" t="n"/>
       <c r="S13" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="14" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="14" s="33">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="n"/>
@@ -1289,18 +1191,24 @@
       <c r="R14" s="2" t="n"/>
       <c r="S14" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="15" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="15" s="33">
       <c r="A15" s="8" t="n"/>
-      <c r="B15" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>15</v>
+      <c r="B15" s="34" t="inlineStr">
+        <is>
+          <t>Имя, Отчество (имена)</t>
+        </is>
+      </c>
+      <c r="E15" s="39" t="inlineStr">
+        <is>
+          <t>ДЕНИС/DENIS</t>
+        </is>
       </c>
       <c r="I15" s="16" t="n"/>
       <c r="J15" s="8" t="n"/>
-      <c r="K15" s="34" t="s">
-        <v>16</v>
+      <c r="K15" s="34" t="inlineStr">
+        <is>
+          <t>Имя, Отчество (имена)</t>
+        </is>
       </c>
       <c r="N15" s="39">
         <f>REPT(E15,1)</f>
@@ -1310,7 +1218,7 @@
       <c r="R15" s="34" t="n"/>
       <c r="S15" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="16" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="16" s="33">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="n"/>
@@ -1329,31 +1237,43 @@
       <c r="R16" s="2" t="n"/>
       <c r="S16" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="17" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="17" s="33">
       <c r="A17" s="8" t="n"/>
-      <c r="B17" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>20</v>
+      <c r="B17" s="34" t="inlineStr">
+        <is>
+          <t>Дата рождения</t>
+        </is>
+      </c>
+      <c r="D17" s="37" t="inlineStr">
+        <is>
+          <t>04/11/1993</t>
+        </is>
+      </c>
+      <c r="F17" s="34" t="inlineStr">
+        <is>
+          <t>Пол</t>
+        </is>
+      </c>
+      <c r="G17" s="38" t="inlineStr">
+        <is>
+          <t>МУЖСКОЙ</t>
+        </is>
       </c>
       <c r="I17" s="10" t="n"/>
       <c r="J17" s="8" t="n"/>
-      <c r="K17" s="34" t="s">
-        <v>17</v>
+      <c r="K17" s="34" t="inlineStr">
+        <is>
+          <t>Дата рождения</t>
+        </is>
       </c>
       <c r="M17" s="39">
         <f>REPT(D17,1)</f>
         <v/>
       </c>
-      <c r="O17" s="34" t="s">
-        <v>19</v>
+      <c r="O17" s="34" t="inlineStr">
+        <is>
+          <t>Пол</t>
+        </is>
       </c>
       <c r="P17" s="44">
         <f>REPT(G17,1)</f>
@@ -1363,7 +1283,7 @@
       <c r="R17" s="34" t="n"/>
       <c r="S17" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="18" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="18" s="33">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
@@ -1384,21 +1304,27 @@
       <c r="R18" s="2" t="n"/>
       <c r="S18" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="19" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="19" s="33">
       <c r="A19" s="8" t="n"/>
-      <c r="B19" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>22</v>
+      <c r="B19" s="34" t="inlineStr">
+        <is>
+          <t>Номер паспорта</t>
+        </is>
+      </c>
+      <c r="D19" s="37" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="F19" s="34" t="n"/>
       <c r="G19" s="34" t="n"/>
       <c r="H19" s="34" t="n"/>
       <c r="I19" s="10" t="n"/>
       <c r="J19" s="8" t="n"/>
-      <c r="K19" s="34" t="s">
-        <v>21</v>
+      <c r="K19" s="34" t="inlineStr">
+        <is>
+          <t>Номер паспорта</t>
+        </is>
       </c>
       <c r="M19" s="37">
         <f>REPT(D19,1)</f>
@@ -1410,7 +1336,7 @@
       <c r="R19" s="34" t="n"/>
       <c r="S19" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="20" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="20" s="33">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>
@@ -1431,21 +1357,27 @@
       <c r="R20" s="2" t="n"/>
       <c r="S20" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="21" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="21" s="33">
       <c r="A21" s="8" t="n"/>
-      <c r="B21" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>24</v>
+      <c r="B21" s="34" t="inlineStr">
+        <is>
+          <t>Цель поездки</t>
+        </is>
+      </c>
+      <c r="D21" s="39" t="inlineStr">
+        <is>
+          <t>ТУРИЗМ</t>
+        </is>
       </c>
       <c r="F21" s="34" t="n"/>
       <c r="G21" s="34" t="n"/>
       <c r="H21" s="34" t="n"/>
       <c r="I21" s="10" t="n"/>
       <c r="J21" s="8" t="n"/>
-      <c r="K21" s="34" t="s">
-        <v>23</v>
+      <c r="K21" s="34" t="inlineStr">
+        <is>
+          <t>Цель поездки</t>
+        </is>
       </c>
       <c r="M21" s="39">
         <f>REPT(D21,1)</f>
@@ -1457,7 +1389,7 @@
       <c r="R21" s="34" t="n"/>
       <c r="S21" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="22" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="22" s="33">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="n"/>
@@ -1478,18 +1410,24 @@
       <c r="R22" s="2" t="n"/>
       <c r="S22" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="23" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="23" s="33">
       <c r="A23" s="8" t="n"/>
-      <c r="B23" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>26</v>
+      <c r="B23" s="34" t="inlineStr">
+        <is>
+          <t>Маршрут и места размещения город</t>
+        </is>
+      </c>
+      <c r="F23" s="43" t="inlineStr">
+        <is>
+          <t>Москва,Санкт-Петербург </t>
+        </is>
       </c>
       <c r="I23" s="10" t="n"/>
       <c r="J23" s="8" t="n"/>
-      <c r="K23" s="34" t="s">
-        <v>25</v>
+      <c r="K23" s="34" t="inlineStr">
+        <is>
+          <t>Маршрут и места размещения город</t>
+        </is>
       </c>
       <c r="O23" s="43">
         <f>REPT(F23,1)</f>
@@ -1499,9 +1437,9 @@
       <c r="R23" s="34" t="n"/>
       <c r="S23" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="24" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="24" s="33">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="2" t="s"/>
+      <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="n"/>
       <c r="D24" s="2" t="n"/>
       <c r="E24" s="2" t="n"/>
@@ -1520,14 +1458,18 @@
       <c r="R24" s="2" t="n"/>
       <c r="S24" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="25" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="25" s="33">
       <c r="A25" s="63" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>27</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t>Размещение</t>
+        </is>
       </c>
       <c r="C25" s="65" t="n"/>
-      <c r="D25" s="66" t="s">
-        <v>28</v>
+      <c r="D25" s="66" t="inlineStr">
+        <is>
+          <t>на борту теплохода "АКУН" (Viking Akun)</t>
+        </is>
       </c>
       <c r="E25" s="65" t="n"/>
       <c r="F25" s="65" t="n"/>
@@ -1535,8 +1477,10 @@
       <c r="H25" s="67" t="n"/>
       <c r="I25" s="64" t="n"/>
       <c r="J25" s="68" t="n"/>
-      <c r="K25" s="64" t="s">
-        <v>27</v>
+      <c r="K25" s="64" t="inlineStr">
+        <is>
+          <t>Размещение</t>
+        </is>
       </c>
       <c r="L25" s="65" t="n"/>
       <c r="M25" s="69">
@@ -1550,25 +1494,31 @@
       <c r="R25" s="34" t="n"/>
       <c r="S25" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="26" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="26" s="33">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="34" t="s">
-        <v>29</v>
+      <c r="B26" s="34" t="inlineStr">
+        <is>
+          <t>Принимающая организация, ее адрес, № референса</t>
+        </is>
       </c>
       <c r="H26" s="34" t="n"/>
       <c r="I26" s="10" t="n"/>
       <c r="J26" s="8" t="n"/>
-      <c r="K26" s="34" t="s">
-        <v>29</v>
+      <c r="K26" s="34" t="inlineStr">
+        <is>
+          <t>Принимающая организация, ее адрес, № референса</t>
+        </is>
       </c>
       <c r="Q26" s="61" t="n"/>
       <c r="R26" s="34" t="n"/>
       <c r="S26" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="27" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="27" s="33">
       <c r="A27" s="8" t="n"/>
-      <c r="B27" s="43" t="s">
-        <v>30</v>
+      <c r="B27" s="43" t="inlineStr">
+        <is>
+          <t>Туристическая компания "МИР", 190000, </t>
+        </is>
       </c>
       <c r="H27" s="34" t="n"/>
       <c r="I27" s="10" t="n"/>
@@ -1581,10 +1531,12 @@
       <c r="R27" s="34" t="n"/>
       <c r="S27" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="28" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="28" s="33">
       <c r="A28" s="8" t="n"/>
-      <c r="B28" s="43" t="s">
-        <v>31</v>
+      <c r="B28" s="43" t="inlineStr">
+        <is>
+          <t>Россия,Санкт-Петербург, улица Большая Морская 31-23 </t>
+        </is>
       </c>
       <c r="H28" s="34" t="n"/>
       <c r="I28" s="10" t="n"/>
@@ -1597,14 +1549,18 @@
       <c r="R28" s="34" t="n"/>
       <c r="S28" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="29" s="33" spans="1:21" thickBot="1">
+    <row customHeight="1" ht="20.25" r="29" s="33" thickBot="1">
       <c r="A29" s="8" t="n"/>
-      <c r="B29" s="25" t="s">
-        <v>32</v>
+      <c r="B29" s="25" t="inlineStr">
+        <is>
+          <t>Реестровый №</t>
+        </is>
       </c>
       <c r="C29" s="26" t="n"/>
-      <c r="D29" s="28" t="s">
-        <v>33</v>
+      <c r="D29" s="28" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
       </c>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
@@ -1612,12 +1568,16 @@
       <c r="H29" s="25" t="n"/>
       <c r="I29" s="29" t="n"/>
       <c r="J29" s="30" t="n"/>
-      <c r="K29" s="25" t="s">
-        <v>32</v>
+      <c r="K29" s="25" t="inlineStr">
+        <is>
+          <t>Реестровый №</t>
+        </is>
       </c>
       <c r="L29" s="26" t="n"/>
-      <c r="M29" s="28" t="s">
-        <v>33</v>
+      <c r="M29" s="28" t="inlineStr">
+        <is>
+          <t>016290</t>
+        </is>
       </c>
       <c r="N29" s="24" t="n"/>
       <c r="O29" s="24" t="n"/>
@@ -1626,7 +1586,7 @@
       <c r="R29" s="34" t="n"/>
       <c r="S29" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="11.25" r="30" s="33" spans="1:21">
+    <row customHeight="1" ht="11.25" r="30" s="33">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="23" t="n"/>
@@ -1647,18 +1607,24 @@
       <c r="R30" s="2" t="n"/>
       <c r="S30" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="31" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="31" s="33">
       <c r="A31" s="8" t="n"/>
-      <c r="B31" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>35</v>
+      <c r="B31" s="34" t="inlineStr">
+        <is>
+          <t>Дополнительные сведения:</t>
+        </is>
+      </c>
+      <c r="E31" s="44" t="inlineStr">
+        <is>
+          <t>Вышеуказанному туристу </t>
+        </is>
       </c>
       <c r="I31" s="10" t="n"/>
       <c r="J31" s="8" t="n"/>
-      <c r="K31" s="34" t="s">
-        <v>34</v>
+      <c r="K31" s="34" t="inlineStr">
+        <is>
+          <t>Дополнительные сведения:</t>
+        </is>
       </c>
       <c r="N31" s="44">
         <f>REPT(E31,1)</f>
@@ -1668,10 +1634,12 @@
       <c r="R31" s="34" t="n"/>
       <c r="S31" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="32" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="32" s="33">
       <c r="A32" s="8" t="n"/>
-      <c r="B32" s="43" t="s">
-        <v>36</v>
+      <c r="B32" s="43" t="inlineStr">
+        <is>
+          <t>предоставляется размещение и питание на борту теплохода "АКУН", трансферы </t>
+        </is>
       </c>
       <c r="I32" s="10" t="n"/>
       <c r="J32" s="8" t="n"/>
@@ -1683,10 +1651,12 @@
       <c r="R32" s="34" t="n"/>
       <c r="S32" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="33" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="33" s="33">
       <c r="A33" s="8" t="n"/>
-      <c r="B33" s="43" t="s">
-        <v>37</v>
+      <c r="B33" s="43" t="inlineStr">
+        <is>
+          <t>и экскурсионное обслуживание в городе Москва, </t>
+        </is>
       </c>
       <c r="I33" s="10" t="n"/>
       <c r="J33" s="8" t="n"/>
@@ -1698,10 +1668,12 @@
       <c r="R33" s="34" t="n"/>
       <c r="S33" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="34" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="34" s="33">
       <c r="A34" s="8" t="n"/>
-      <c r="B34" s="43" t="s">
-        <v>38</v>
+      <c r="B34" s="43" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ </t>
+        </is>
       </c>
       <c r="I34" s="10" t="n"/>
       <c r="J34" s="8" t="n"/>
@@ -1713,7 +1685,7 @@
       <c r="R34" s="34" t="n"/>
       <c r="S34" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="35" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="35" s="33">
       <c r="A35" s="8" t="n"/>
       <c r="B35" s="43" t="n"/>
       <c r="I35" s="10" t="n"/>
@@ -1726,38 +1698,48 @@
       <c r="R35" s="34" t="n"/>
       <c r="S35" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="36" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="36" s="33">
       <c r="A36" s="8" t="n"/>
-      <c r="B36" s="43" t="s">
-        <v>39</v>
+      <c r="B36" s="43" t="inlineStr">
+        <is>
+          <t>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ОПЛАЧЕНЫ</t>
+        </is>
       </c>
       <c r="I36" s="10" t="n"/>
       <c r="J36" s="8" t="n"/>
-      <c r="K36" s="43" t="s">
-        <v>39</v>
+      <c r="K36" s="43" t="inlineStr">
+        <is>
+          <t>ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ОПЛАЧЕНЫ</t>
+        </is>
       </c>
       <c r="Q36" s="58" t="n"/>
       <c r="R36" s="34" t="n"/>
       <c r="S36" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="37" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="37" s="33">
       <c r="A37" s="8" t="n"/>
-      <c r="B37" s="43" t="s">
-        <v>40</v>
+      <c r="B37" s="43" t="inlineStr">
+        <is>
+          <t>Ответсвенное лицо:</t>
+        </is>
       </c>
       <c r="I37" s="10" t="n"/>
       <c r="J37" s="8" t="n"/>
-      <c r="K37" s="43" t="s">
-        <v>40</v>
+      <c r="K37" s="43" t="inlineStr">
+        <is>
+          <t>Ответсвенное лицо:</t>
+        </is>
       </c>
       <c r="Q37" s="58" t="n"/>
       <c r="R37" s="34" t="n"/>
       <c r="S37" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="38" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="38" s="33">
       <c r="A38" s="8" t="n"/>
-      <c r="B38" s="34" t="s">
-        <v>41</v>
+      <c r="B38" s="34" t="inlineStr">
+        <is>
+          <t>М.П.</t>
+        </is>
       </c>
       <c r="C38" s="34" t="n"/>
       <c r="D38" s="34" t="n"/>
@@ -1767,8 +1749,10 @@
       <c r="H38" s="34" t="n"/>
       <c r="I38" s="10" t="n"/>
       <c r="J38" s="8" t="n"/>
-      <c r="K38" s="34" t="s">
-        <v>41</v>
+      <c r="K38" s="34" t="inlineStr">
+        <is>
+          <t>М.П.</t>
+        </is>
       </c>
       <c r="L38" s="34" t="n"/>
       <c r="M38" s="34" t="n"/>
@@ -1779,46 +1763,60 @@
       <c r="R38" s="34" t="n"/>
       <c r="S38" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="39" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="39" s="33">
       <c r="A39" s="8" t="n"/>
       <c r="B39" s="34" t="n"/>
-      <c r="C39" s="17" t="s">
-        <v>42</v>
+      <c r="C39" s="17" t="inlineStr">
+        <is>
+          <t>Подпись</t>
+        </is>
       </c>
       <c r="D39" s="42" t="n"/>
       <c r="E39" s="65" t="n"/>
-      <c r="F39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>44</v>
+      <c r="F39" s="34" t="inlineStr">
+        <is>
+          <t>Васив Д.М.</t>
+        </is>
+      </c>
+      <c r="H39" s="34" t="inlineStr">
+        <is>
+          <t>(менеджер ви-</t>
+        </is>
       </c>
       <c r="I39" s="10" t="n"/>
       <c r="J39" s="8" t="n"/>
       <c r="K39" s="34" t="n"/>
-      <c r="L39" s="17" t="s">
-        <v>42</v>
+      <c r="L39" s="17" t="inlineStr">
+        <is>
+          <t>Подпись</t>
+        </is>
       </c>
       <c r="M39" s="42" t="n"/>
       <c r="N39" s="65" t="n"/>
-      <c r="O39" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q39" s="61" t="s">
-        <v>44</v>
+      <c r="O39" s="34" t="inlineStr">
+        <is>
+          <t>Васив Д.М.</t>
+        </is>
+      </c>
+      <c r="Q39" s="61" t="inlineStr">
+        <is>
+          <t>(менеджер ви-</t>
+        </is>
       </c>
       <c r="R39" s="34" t="n"/>
       <c r="S39" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="40" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="40" s="33">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="2" t="n"/>
       <c r="C40" s="2" t="n"/>
       <c r="D40" s="2" t="n"/>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="34" t="n"/>
-      <c r="H40" s="34" t="s">
-        <v>45</v>
+      <c r="H40" s="34" t="inlineStr">
+        <is>
+          <t>зового отдела)</t>
+        </is>
       </c>
       <c r="I40" s="3" t="n"/>
       <c r="J40" s="1" t="n"/>
@@ -1827,17 +1825,21 @@
       <c r="M40" s="2" t="n"/>
       <c r="N40" s="2" t="n"/>
       <c r="O40" s="34" t="n"/>
-      <c r="Q40" s="61" t="s">
-        <v>45</v>
+      <c r="Q40" s="61" t="inlineStr">
+        <is>
+          <t>зового отдела)</t>
+        </is>
       </c>
       <c r="R40" s="2" t="n"/>
       <c r="S40" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="41" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="41" s="33">
       <c r="A41" s="8" t="n"/>
       <c r="B41" s="34" t="n"/>
-      <c r="C41" s="17" t="s">
-        <v>46</v>
+      <c r="C41" s="17" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
       </c>
       <c r="D41" s="40">
         <f>TODAY()</f>
@@ -1849,8 +1851,10 @@
       <c r="I41" s="10" t="n"/>
       <c r="J41" s="8" t="n"/>
       <c r="K41" s="34" t="n"/>
-      <c r="L41" s="17" t="s">
-        <v>46</v>
+      <c r="L41" s="17" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
       </c>
       <c r="M41" s="40">
         <f>TODAY()</f>
@@ -1862,7 +1866,7 @@
       <c r="R41" s="34" t="n"/>
       <c r="S41" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="16.5" r="42" s="33" spans="1:21">
+    <row customHeight="1" ht="16.5" r="42" s="33">
       <c r="A42" s="4" t="n"/>
       <c r="B42" s="18" t="n"/>
       <c r="C42" s="18" t="n"/>

--- a/tmp1.xlsx
+++ b/tmp1.xlsx
@@ -415,10 +415,10 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2000250" cy="2000250"/>
+    <ext cx="1190625" cy="1190625"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="1" name="Image 1"/>
@@ -440,10 +440,10 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2000250" cy="2000250"/>
+    <ext cx="1190625" cy="1190625"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="2" name="Image 2"/>
@@ -463,12 +463,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>2</col>
+      <col>3</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2343150" cy="1866900"/>
+    <ext cx="1143000" cy="914400"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="3" name="Image 3"/>
@@ -490,10 +490,10 @@
     <from>
       <col>12</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2343150" cy="1866900"/>
+    <ext cx="1143000" cy="914400"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="4" name="Image 4"/>

--- a/tmp1.xlsx
+++ b/tmp1.xlsx
@@ -932,7 +932,7 @@
       <c r="A5" s="8" t="n"/>
       <c r="B5" s="52" t="inlineStr">
         <is>
-          <t>визовое приглашение № 14</t>
+          <t>визовое приглашение № 16</t>
         </is>
       </c>
       <c r="F5" s="48" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C13" s="39" t="inlineStr">
         <is>
-          <t>НЕКР/NEKR</t>
+          <t>НЕКРСАОВ/NEKRSAOV</t>
         </is>
       </c>
       <c r="I13" s="10" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E15" s="39" t="inlineStr">
         <is>
-          <t>ДЕНИС/DENIS</t>
+          <t>ДНЕИС/DNEIS</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D17" s="37" t="inlineStr">
         <is>
-          <t>04/11/1993</t>
+          <t>04/11/1399</t>
         </is>
       </c>
       <c r="F17" s="34" t="inlineStr">

--- a/tmp1.xlsx
+++ b/tmp1.xlsx
@@ -932,7 +932,7 @@
       <c r="A5" s="8" t="n"/>
       <c r="B5" s="52" t="inlineStr">
         <is>
-          <t>визовое приглашение № 16</t>
+          <t>визовое приглашение № 24</t>
         </is>
       </c>
       <c r="F5" s="48" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C13" s="39" t="inlineStr">
         <is>
-          <t>НЕКРСАОВ/NEKRSAOV</t>
+          <t>SJ/JSADF</t>
         </is>
       </c>
       <c r="I13" s="10" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E15" s="39" t="inlineStr">
         <is>
-          <t>ДНЕИС/DNEIS</t>
+          <t>АСДЙ/ASDJ</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D17" s="37" t="inlineStr">
         <is>
-          <t>04/11/1399</t>
+          <t>28/02/2019</t>
         </is>
       </c>
       <c r="F17" s="34" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="D19" s="37" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>asdljf</t>
         </is>
       </c>
       <c r="F19" s="34" t="n"/>

--- a/tmp1.xlsx
+++ b/tmp1.xlsx
@@ -932,7 +932,7 @@
       <c r="A5" s="8" t="n"/>
       <c r="B5" s="52" t="inlineStr">
         <is>
-          <t>визовое приглашение № 24</t>
+          <t>визовое приглашение № 25</t>
         </is>
       </c>
       <c r="F5" s="48" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C13" s="39" t="inlineStr">
         <is>
-          <t>SJ/JSADF</t>
+          <t>ННН/NNN</t>
         </is>
       </c>
       <c r="I13" s="10" t="n"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E15" s="39" t="inlineStr">
         <is>
-          <t>АСДЙ/ASDJ</t>
+          <t>ДДД/DDD</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D17" s="37" t="inlineStr">
         <is>
-          <t>28/02/2019</t>
+          <t>04/11/1993</t>
         </is>
       </c>
       <c r="F17" s="34" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="D19" s="37" t="inlineStr">
         <is>
-          <t>asdljf</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="F19" s="34" t="n"/>
@@ -1638,7 +1638,7 @@
       <c r="A32" s="8" t="n"/>
       <c r="B32" s="43" t="inlineStr">
         <is>
-          <t>предоставляется размещение и питание на борту теплохода "АКУН", трансферы </t>
+          <t>предоставляется размещение и питание на борту теплохода </t>
         </is>
       </c>
       <c r="I32" s="10" t="n"/>
@@ -1655,7 +1655,7 @@
       <c r="A33" s="8" t="n"/>
       <c r="B33" s="43" t="inlineStr">
         <is>
-          <t>и экскурсионное обслуживание в городе Москва, </t>
+          <t>"АКУН", трансферы и экскурсионное обслуживание в </t>
         </is>
       </c>
       <c r="I33" s="10" t="n"/>
@@ -1672,7 +1672,7 @@
       <c r="A34" s="8" t="n"/>
       <c r="B34" s="43" t="inlineStr">
         <is>
-          <t>Санкт-Петербург ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ </t>
+          <t>городе Москва, Санкт-Петербург ВСЕ ВЫШЕПЕРЕЧИСЛЕННЫЕ УСЛУГИ ПОЛНОСТЬЮ ПЛАЧЕНЫ </t>
         </is>
       </c>
       <c r="I34" s="10" t="n"/>
